--- a/data/case1/5/V2_13.xlsx
+++ b/data/case1/5/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999110419746</v>
+        <v>0.99999999019675678</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99904937059354304</v>
+        <v>0.99784961170450448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9975082541462994</v>
+        <v>0.9899074052897685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0022370813591597</v>
+        <v>0.99182158794489939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99387939976506601</v>
+        <v>0.98054410113046275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97612102906638099</v>
+        <v>0.95511656220524455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.97092787587161677</v>
+        <v>0.94851909378879784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96401135856442499</v>
+        <v>0.93938786677595199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95601344265530597</v>
+        <v>0.92764100312535636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9489299035429597</v>
+        <v>0.91681201234868648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94793024933675274</v>
+        <v>0.91521579681877796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94628404640376118</v>
+        <v>0.91243571133961665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94035050698571143</v>
+        <v>0.90114774290192701</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93854144322824984</v>
+        <v>0.89698027494336929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93816859467311531</v>
+        <v>0.89438875387423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93829540041170423</v>
+        <v>0.89188222617347068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94019872448276698</v>
+        <v>0.88817429737207398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93908983768884635</v>
+        <v>0.88706540371856257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99799621693219409</v>
+        <v>0.99679645500118641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99087935979562924</v>
+        <v>0.98967966906032911</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98948089527007133</v>
+        <v>0.98828122212607439</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98821639425093155</v>
+        <v>0.98701672777811988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.99047441186218066</v>
+        <v>0.98287305913314227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97745449860466938</v>
+        <v>0.96985262914318848</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97099767129412984</v>
+        <v>0.96339571796017798</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9749642888415132</v>
+        <v>0.95302855131702513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.97360401950999731</v>
+        <v>0.95036719704526851</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9701178825128326</v>
+        <v>0.93830276341345087</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.96824908484814964</v>
+        <v>0.92999833610189842</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.96772841864152204</v>
+        <v>0.92619247446644914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.96313425787226781</v>
+        <v>0.9278783067208769</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.96274049758215408</v>
+        <v>0.92619908126928374</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.96437289825816164</v>
+        <v>0.92567908629469908</v>
       </c>
     </row>
   </sheetData>
